--- a/分数区间.xlsx
+++ b/分数区间.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <name val="宋体"/>
       <family val="2"/>
@@ -46,6 +46,23 @@
       <color theme="1"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -301,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -319,12 +336,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -345,6 +356,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -623,258 +644,318 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:L6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row customHeight="1" ht="14.4" r="1" thickBot="1">
-      <c r="A1" s="15" t="inlineStr">
+      <c r="A1" s="13" t="inlineStr">
         <is>
           <t>成绩等级</t>
         </is>
       </c>
-      <c r="B1" s="16" t="n"/>
-      <c r="C1" s="15" t="inlineStr">
+      <c r="B1" s="14" t="n"/>
+      <c r="C1" s="17" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D1" s="16" t="n"/>
-      <c r="E1" s="15" t="inlineStr">
+      <c r="D1" s="14" t="n"/>
+      <c r="E1" s="17" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="F1" s="16" t="n"/>
-      <c r="G1" s="15" t="inlineStr">
+      <c r="F1" s="14" t="n"/>
+      <c r="G1" s="17" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H1" s="16" t="n"/>
-      <c r="I1" s="15" t="inlineStr">
+      <c r="H1" s="14" t="n"/>
+      <c r="I1" s="17" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="J1" s="16" t="n"/>
-      <c r="K1" s="15" t="inlineStr">
+      <c r="J1" s="14" t="n"/>
+      <c r="K1" s="17" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="L1" s="16" t="n"/>
+      <c r="L1" s="14" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="2" thickBot="1">
-      <c r="A2" s="15" t="inlineStr">
+      <c r="A2" s="13" t="inlineStr">
         <is>
           <t>等级成绩区间</t>
         </is>
       </c>
-      <c r="B2" s="16" t="n"/>
-      <c r="C2" s="7" t="n">
+      <c r="B2" s="14" t="n"/>
+      <c r="C2" s="17" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="18" t="n">
         <v>86</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="17" t="n">
         <v>85</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="18" t="n">
         <v>71</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="17" t="n">
         <v>70</v>
       </c>
-      <c r="H2" s="8" t="n">
+      <c r="H2" s="18" t="n">
         <v>56</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="17" t="n">
         <v>55</v>
       </c>
-      <c r="J2" s="8" t="n">
+      <c r="J2" s="18" t="n">
         <v>41</v>
       </c>
-      <c r="K2" s="7" t="n">
+      <c r="K2" s="17" t="n">
         <v>40</v>
       </c>
-      <c r="L2" s="8" t="n">
+      <c r="L2" s="18" t="n">
         <v>30</v>
       </c>
     </row>
     <row customHeight="1" ht="14.4" r="3">
-      <c r="A3" s="12" t="inlineStr">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>原始成绩区间</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>物理</t>
         </is>
       </c>
-      <c r="C3" s="5" t="n"/>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="5" t="n"/>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="5" t="n"/>
-      <c r="J3" s="6" t="n"/>
-      <c r="K3" s="5" t="n"/>
-      <c r="L3" s="6" t="n"/>
+      <c r="C3" s="5" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L3" s="6" t="n">
+        <v>18.3</v>
+      </c>
     </row>
     <row customHeight="1" ht="14.4" r="4">
-      <c r="A4" s="13" t="n"/>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="A4" s="11" t="n"/>
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>化学</t>
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row customHeight="1" ht="14.4" r="5">
-      <c r="A5" s="13" t="n"/>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="A5" s="11" t="n"/>
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>生物</t>
         </is>
       </c>
       <c r="C5" s="1" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row customHeight="1" ht="14.4" r="6">
-      <c r="A6" s="13" t="n"/>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="A6" s="11" t="n"/>
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>政治</t>
         </is>
       </c>
       <c r="C6" s="1" t="n">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row customHeight="1" ht="14.4" r="7">
-      <c r="A7" s="13" t="n"/>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="A7" s="11" t="n"/>
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>历史</t>
         </is>
       </c>
-      <c r="C7" s="1" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="1" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="1" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="1" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="1" t="n"/>
-      <c r="L7" s="2" t="n"/>
+      <c r="C7" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row customHeight="1" ht="14.4" r="8" thickBot="1">
-      <c r="A8" s="14" t="n"/>
-      <c r="B8" s="11" t="inlineStr">
+      <c r="A8" s="12" t="n"/>
+      <c r="B8" s="9" t="inlineStr">
         <is>
           <t>地理</t>
         </is>
       </c>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="4" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="4" t="n"/>
-      <c r="G8" s="3" t="n"/>
-      <c r="H8" s="4" t="n"/>
-      <c r="I8" s="3" t="n"/>
-      <c r="J8" s="4" t="n"/>
-      <c r="K8" s="3" t="n"/>
-      <c r="L8" s="4" t="n"/>
+      <c r="C8" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="12">
       <c r="E12" t="inlineStr">

--- a/分数区间.xlsx
+++ b/分数区间.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9144" windowWidth="23040" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="分数区间" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="分数区间" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <name val="宋体"/>
       <family val="2"/>
@@ -46,23 +46,6 @@
       <color theme="1"/>
       <sz val="11"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -316,61 +299,125 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="15" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -637,239 +684,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
-    <row customHeight="1" ht="14.4" r="1" thickBot="1">
-      <c r="A1" s="13" t="inlineStr">
+    <row r="1" ht="14.45" customHeight="1" thickBot="1">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>成绩等级</t>
         </is>
       </c>
-      <c r="B1" s="14" t="n"/>
-      <c r="C1" s="17" t="inlineStr">
+      <c r="B1" s="16" t="n"/>
+      <c r="C1" s="15" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D1" s="14" t="n"/>
-      <c r="E1" s="17" t="inlineStr">
+      <c r="D1" s="16" t="n"/>
+      <c r="E1" s="15" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="F1" s="14" t="n"/>
-      <c r="G1" s="17" t="inlineStr">
+      <c r="F1" s="16" t="n"/>
+      <c r="G1" s="15" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H1" s="14" t="n"/>
-      <c r="I1" s="17" t="inlineStr">
+      <c r="H1" s="16" t="n"/>
+      <c r="I1" s="15" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="J1" s="14" t="n"/>
-      <c r="K1" s="17" t="inlineStr">
+      <c r="J1" s="16" t="n"/>
+      <c r="K1" s="15" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="L1" s="14" t="n"/>
+      <c r="L1" s="16" t="n"/>
     </row>
-    <row customHeight="1" ht="14.4" r="2" thickBot="1">
-      <c r="A2" s="13" t="inlineStr">
+    <row r="2" ht="14.45" customHeight="1" thickBot="1">
+      <c r="A2" s="15" t="inlineStr">
         <is>
           <t>等级成绩区间</t>
         </is>
       </c>
-      <c r="B2" s="14" t="n"/>
-      <c r="C2" s="17" t="n">
+      <c r="B2" s="16" t="n"/>
+      <c r="C2" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="18" t="n">
+      <c r="D2" s="8" t="n">
         <v>86</v>
       </c>
-      <c r="E2" s="17" t="n">
+      <c r="E2" s="7" t="n">
         <v>85</v>
       </c>
-      <c r="F2" s="18" t="n">
+      <c r="F2" s="8" t="n">
         <v>71</v>
       </c>
-      <c r="G2" s="17" t="n">
+      <c r="G2" s="7" t="n">
         <v>70</v>
       </c>
-      <c r="H2" s="18" t="n">
+      <c r="H2" s="8" t="n">
         <v>56</v>
       </c>
-      <c r="I2" s="17" t="n">
+      <c r="I2" s="7" t="n">
         <v>55</v>
       </c>
-      <c r="J2" s="18" t="n">
+      <c r="J2" s="8" t="n">
         <v>41</v>
       </c>
-      <c r="K2" s="17" t="n">
+      <c r="K2" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="L2" s="18" t="n">
+      <c r="L2" s="8" t="n">
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="3">
-      <c r="A3" s="10" t="inlineStr">
+    <row r="3" ht="14.45" customHeight="1">
+      <c r="A3" s="12" t="inlineStr">
         <is>
           <t>原始成绩区间</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>物理</t>
         </is>
       </c>
-      <c r="C3" s="5" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>56.7</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>45.8</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="J3" s="6" t="n">
-        <v>28</v>
-      </c>
-      <c r="K3" s="5" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="L3" s="6" t="n">
-        <v>18.3</v>
-      </c>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="6" t="n"/>
+      <c r="I3" s="5" t="n"/>
+      <c r="J3" s="6" t="n"/>
+      <c r="K3" s="5" t="n"/>
+      <c r="L3" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="14.4" r="4">
-      <c r="A4" s="11" t="n"/>
-      <c r="B4" s="8" t="inlineStr">
+    <row r="4" ht="14.45" customHeight="1">
+      <c r="A4" s="13" t="n"/>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>历史</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="14.45" customHeight="1">
+      <c r="A5" s="13" t="n"/>
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>化学</t>
         </is>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="E4" s="1" t="n">
+      <c r="C5" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" ht="14.45" customHeight="1">
+      <c r="A6" s="13" t="n"/>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>生物</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="5">
-      <c r="A5" s="11" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>生物</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="6">
-      <c r="A6" s="11" t="n"/>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>政治</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>61</v>
-      </c>
       <c r="G6" s="1" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>44</v>
@@ -878,36 +885,36 @@
         <v>43</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="7">
-      <c r="A7" s="11" t="n"/>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>历史</t>
+    <row r="7" ht="14.45" customHeight="1">
+      <c r="A7" s="13" t="n"/>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>政治</t>
         </is>
       </c>
       <c r="C7" s="1" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J7" s="2" t="n">
         <v>41</v>
@@ -916,12 +923,12 @@
         <v>38</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="8" thickBot="1">
-      <c r="A8" s="12" t="n"/>
-      <c r="B8" s="9" t="inlineStr">
+    <row r="8" ht="14.45" customHeight="1" thickBot="1">
+      <c r="A8" s="14" t="n"/>
+      <c r="B8" s="11" t="inlineStr">
         <is>
           <t>地理</t>
         </is>
@@ -930,31 +937,31 @@
         <v>84</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>63</v>
+      </c>
+      <c r="G8" s="3" t="n">
         <v>62</v>
       </c>
-      <c r="E8" s="3" t="n">
-        <v>61</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>53</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>52</v>
-      </c>
       <c r="H8" s="4" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -975,7 +982,7 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>